--- a/Assignments/A4/PhoneSurvey.xlsx
+++ b/Assignments/A4/PhoneSurvey.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwe/Documents/Economics/Teaching/MACSS/MACS30000/Fall2018/Assignments/A4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shw/Documents/Chicago/fall18/perspective/persp-analysis_A18/Assignments/A4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFAB015-092A-7748-BEF6-F563EAB7DF11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4524F856-5AE4-7944-9007-F045E8A22BE5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="720" windowWidth="25440" windowHeight="14420" xr2:uid="{BDE4B2C5-7C5C-EF4E-A801-B6684FDFD484}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14260" xr2:uid="{BDE4B2C5-7C5C-EF4E-A801-B6684FDFD484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$E$203</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="25">
   <si>
     <t>Survey Response sheet for MACS 30000 (Autumn 2018), Assignment 4</t>
   </si>
@@ -44,19 +47,95 @@
   <si>
     <t>Sample ID</t>
   </si>
+  <si>
+    <t>0(disconnected)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(under 18)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(nobody answer)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(refuse to answer)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(voice mailbox)</t>
+  </si>
+  <si>
+    <t>0(voice mailbox)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(company number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repub(Trump)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dem(Clinton)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response =1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response=0 (disconnected)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response=0 (voice mailbox)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resoponse=0 (company number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response=0 (nobody answer)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response=0 (refuse to answer)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response=0 (under 18)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haowen Shang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary for the Survey Response</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;___&quot;\-000\-0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="&quot;___&quot;\-000\-0000"/>
+    <numFmt numFmtId="177" formatCode="\3\1\7\-000\-0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,8 +143,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -77,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,20 +171,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,25 +519,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C33F710-E8FA-AE4D-9C3A-3CA0D51B8626}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="36" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -444,1611 +565,2292 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="34">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>4310454</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>6920338</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <f>COUNTIF(C4:C203,"0(disconnected)")</f>
+        <v>110</v>
+      </c>
+      <c r="I5" s="6">
+        <f>COUNTIF(C4:C203,"0(voice mailbox)")</f>
+        <v>60</v>
+      </c>
+      <c r="J5" s="6">
+        <f>COUNTIF(C4:C203,"0(Company number)")</f>
+        <v>5</v>
+      </c>
+      <c r="K5" s="6">
+        <f>COUNTIF(C4:C203,"0(nobody answer)")</f>
+        <v>7</v>
+      </c>
+      <c r="L5" s="6">
+        <f>COUNTIF(C4:C203,"0(under 18)")</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="6">
+        <f>COUNTIF(C4:C203,"0(refuse to answer)")</f>
+        <v>14</v>
+      </c>
+      <c r="N5" s="6">
+        <f>SUM(G5:M5)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>6918070</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>3605305</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>8892229</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>3421805</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>4172517</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>8613530</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>5087341</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>2438163</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>4037270</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>5652672</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>7393216</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>7229394</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>5151305</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>4877748</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>4265519</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>6516979</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>8565245</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>8407755</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>2709233</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>9181750</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>4860050</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>8194429</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>7497881</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>6978928</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>4670541</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>8642160</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>3109656</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>2536524</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>4159593</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>9156659</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="4">
         <v>2630658</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="4">
         <v>3103116</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>3526990</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="4">
         <v>8903095</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>8761170</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="4">
         <v>9173160</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>8450958</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>5849527</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="4">
         <v>9874505</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="4">
         <v>5080490</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>7459046</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>4455876</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="4">
         <v>9744213</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="4">
         <v>3099226</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="4">
         <v>7441722</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>48</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="4">
         <v>6900989</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="4">
         <v>8572189</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="4">
         <v>7154223</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>51</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="4">
         <v>6231491</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>52</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="4">
         <v>3660183</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>53</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="4">
         <v>5014048</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="4">
         <v>3395385</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>55</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="4">
         <v>5220200</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>56</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="4">
         <v>4510321</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>57</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="4">
         <v>8189798</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="4">
         <v>2687999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>59</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="4">
         <v>9551750</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>60</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="4">
         <v>3894955</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>61</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="4">
         <v>3018578</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>62</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="4">
         <v>2758398</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="4">
         <v>3891447</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>64</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="4">
         <v>2661373</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>65</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="4">
         <v>6190466</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="4">
         <v>4491947</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="4">
         <v>3008542</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="4">
         <v>9177932</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="4">
         <v>5434580</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>70</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="4">
         <v>5588372</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>71</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="4">
         <v>6528460</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>72</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="4">
         <v>5080362</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>73</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="4">
         <v>5807911</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>74</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="4">
         <v>3656122</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>75</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="4">
         <v>8509733</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>76</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="4">
         <v>6573086</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>77</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="4">
         <v>7515206</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>78</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="4">
         <v>3733268</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>79</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="4">
         <v>6948908</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>80</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="4">
         <v>4597991</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>81</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="4">
         <v>5010584</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>82</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="4">
         <v>7150555</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>83</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="4">
         <v>2318224</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>84</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="4">
         <v>5894130</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>85</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="4">
         <v>3241426</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>86</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="4">
         <v>9364559</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>87</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="4">
         <v>9980970</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>88</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="4">
         <v>4325683</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>89</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="4">
         <v>3963502</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>90</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="4">
         <v>7446604</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>91</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="4">
         <v>8970051</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>92</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="4">
         <v>6571851</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>93</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="4">
         <v>2818481</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>94</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="4">
         <v>9592068</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>95</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="4">
         <v>4182313</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>96</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="4">
         <v>3881508</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>97</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="4">
         <v>3347696</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>98</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="4">
         <v>2892356</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>99</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="4">
         <v>8330415</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>100</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="4">
         <v>4819145</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>101</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="4">
         <v>8775030</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>102</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="4">
         <v>7091051</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>103</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="4">
         <v>8891439</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>104</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="4">
         <v>7315774</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>105</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="4">
         <v>3718721</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>106</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="4">
         <v>5087908</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>107</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="4">
         <v>2247311</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>108</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="4">
         <v>8388750</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>109</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="4">
         <v>8192717</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>110</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="4">
         <v>7432052</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>111</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="4">
         <v>7083813</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>112</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="4">
         <v>2976684</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>113</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="4">
         <v>8661836</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>114</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="4">
         <v>9359749</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>115</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="4">
         <v>7606307</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>116</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="4">
         <v>9825275</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>117</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="4">
         <v>2312219</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>118</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="4">
         <v>5268099</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>119</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="4">
         <v>2430785</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>120</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="4">
         <v>4616118</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>121</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="4">
         <v>6914711</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>122</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="4">
         <v>6791019</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>123</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="4">
         <v>4332585</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>124</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="4">
         <v>6715089</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>125</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="4">
         <v>9087058</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>126</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="4">
         <v>5511333</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>127</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="4">
         <v>7842348</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>128</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="4">
         <v>6985596</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>129</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="4">
         <v>6915150</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>130</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="4">
         <v>7551254</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>131</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="4">
         <v>9173893</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>132</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="4">
         <v>2568202</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>133</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="4">
         <v>4343802</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>134</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="4">
         <v>8465251</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>135</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="4">
         <v>5902748</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>136</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="4">
         <v>5457011</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>137</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="4">
         <v>3443484</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>138</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="4">
         <v>5915981</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>139</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="4">
         <v>7778407</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>140</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="4">
         <v>2217074</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>141</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="4">
         <v>2737031</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>142</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="4">
         <v>8494794</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>143</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="4">
         <v>6628639</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147">
         <v>144</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="4">
         <v>5618680</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>145</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="4">
         <v>7888364</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>146</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="4">
         <v>8024308</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150">
         <v>147</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="4">
         <v>5051667</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>148</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="4">
         <v>4159001</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152">
         <v>149</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="4">
         <v>7676347</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153">
         <v>150</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="4">
         <v>5134416</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154">
         <v>151</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="4">
         <v>2267488</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155">
         <v>152</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="4">
         <v>6442587</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156">
         <v>153</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="4">
         <v>6699768</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157">
         <v>154</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="4">
         <v>4874074</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158">
         <v>155</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="4">
         <v>7866924</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159">
         <v>156</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="4">
         <v>9549022</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160">
         <v>157</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="4">
         <v>5026225</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161">
         <v>158</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="4">
         <v>4659414</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162">
         <v>159</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="4">
         <v>5419835</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163">
         <v>160</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="4">
         <v>5452013</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164">
         <v>161</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="4">
         <v>2692532</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165">
         <v>162</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="4">
         <v>7955739</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166">
         <v>163</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="4">
         <v>5132906</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167">
         <v>164</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="4">
         <v>5090326</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168">
         <v>165</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="4">
         <v>3994238</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169">
         <v>166</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="4">
         <v>5862415</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170">
         <v>167</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="4">
         <v>8062628</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171">
         <v>168</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="4">
         <v>8003832</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172">
         <v>169</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="4">
         <v>5252614</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173">
         <v>170</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="4">
         <v>4195869</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>171</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="4">
         <v>8535596</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>172</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="4">
         <v>8678867</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>173</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="4">
         <v>5982092</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177">
         <v>174</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="4">
         <v>7611254</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178">
         <v>175</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="4">
         <v>8437753</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179">
         <v>176</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="4">
         <v>7890078</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180">
         <v>177</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="4">
         <v>3651319</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>178</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="4">
         <v>6475001</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182">
         <v>179</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="4">
         <v>3149776</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183">
         <v>180</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="4">
         <v>5174142</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184">
         <v>181</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="4">
         <v>4874684</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185">
         <v>182</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="4">
         <v>9471793</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186">
         <v>183</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="4">
         <v>7149721</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187">
         <v>184</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="4">
         <v>3647226</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188">
         <v>185</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="4">
         <v>9460546</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189">
         <v>186</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="4">
         <v>9934058</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190">
         <v>187</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="4">
         <v>8721015</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191">
         <v>188</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="4">
         <v>5879786</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192">
         <v>189</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="4">
         <v>5897459</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>190</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="4">
         <v>3885491</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194">
         <v>191</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="4">
         <v>5907260</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195">
         <v>192</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="4">
         <v>5319117</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196">
         <v>193</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="4">
         <v>6449080</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>194</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="4">
         <v>5819513</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198">
         <v>195</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="4">
         <v>4546568</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199">
         <v>196</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="4">
         <v>6325755</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>197</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="4">
         <v>8598859</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201">
         <v>198</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="4">
         <v>5437339</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202">
         <v>199</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="4">
         <v>2563144</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203">
         <v>200</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="4">
         <v>2375113</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="B204" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:N3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>